--- a/BalanceSheet/SPLK_bal.xlsx
+++ b/BalanceSheet/SPLK_bal.xlsx
@@ -1804,19 +1804,19 @@
         </is>
       </c>
       <c r="B13" s="0" t="n">
-        <v>-3903000.0</v>
+        <v>9000000.0</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>-28142000.0</v>
+        <v>16000000.0</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>15627000.0</v>
+        <v>41000000.0</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>7336000.0</v>
+        <v>25000000.0</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>-4312000.0</v>
+        <v>19000000.0</v>
       </c>
       <c r="G13" s="0" t="n">
         <v>28026000.0</v>
